--- a/experiment result/64_0.6_40_zs0_kappa_lp.xlsx
+++ b/experiment result/64_0.6_40_zs0_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0265671682366283</v>
+        <v>0.00377904558097701</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0421008475385012</v>
+        <v>0.005146584696033152</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05245874979762797</v>
+        <v>0.007645835877183498</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04925101821716131</v>
+        <v>0.01330931762126556</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04179736369962913</v>
+        <v>0.005203724629318785</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05268775112514139</v>
+        <v>0.01428512217813249</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05007772089598321</v>
+        <v>0.004328056286643922</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0691251579249509</v>
+        <v>0.008084036612937929</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04069982596932929</v>
+        <v>0.005434893127088053</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06735422313071091</v>
+        <v>0.008517300615953015</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07880875999792125</v>
+        <v>0.01973793032443528</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07000248969326768</v>
+        <v>0.01782410469679786</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04410657437270014</v>
+        <v>0.007746736205261728</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08437784309872766</v>
+        <v>0.006440602229232889</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0513583151368668</v>
+        <v>0.00880351326897905</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0349608506473781</v>
+        <v>0.007434492675555487</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05093210484599918</v>
+        <v>0.01327414852462343</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02904781784987973</v>
+        <v>0.0008814491017688575</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04311070192121693</v>
+        <v>0.01150313771824871</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07367860788867489</v>
+        <v>0.01118216592057993</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0352012221919004</v>
+        <v>0.008395140081538527</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04537157853010857</v>
+        <v>0.006011255807960471</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06016482205709389</v>
+        <v>0.01202470802098167</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02888151815019412</v>
+        <v>0.004960162921611876</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02925827682435446</v>
+        <v>0.005846041780738194</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06552296375148199</v>
+        <v>0.01261918910644214</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04047463185655271</v>
+        <v>0.006425266612317381</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.041512392922377</v>
+        <v>0.0063931710877839</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03953627469447205</v>
+        <v>0.01403874483600123</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0614273630398028</v>
+        <v>0.01179065263649544</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02171892759586123</v>
+        <v>0.003135231406988008</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.05866515034573252</v>
+        <v>0.004017219483464935</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07293412572546512</v>
+        <v>0.01185621689272708</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05183106219203684</v>
+        <v>0.003873739355187898</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04146239072327868</v>
+        <v>0.00736829103454775</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05521249186588056</v>
+        <v>0.009663834751459099</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03366215135366803</v>
+        <v>0.004654647210919903</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0660504296618378</v>
+        <v>0.0112538331104497</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.04358000703867605</v>
+        <v>0.00981408648537767</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0917197719957378</v>
+        <v>0.01417753626036417</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.05371634793492617</v>
+        <v>0.01048579468016126</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03385088063536019</v>
+        <v>0.004495826172638183</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.03207856824603999</v>
+        <v>0.008745591616848021</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04806327061950558</v>
+        <v>0.005655107834988883</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.04631588218073752</v>
+        <v>0.007090160457714443</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08909014161703743</v>
+        <v>0.01768353508362274</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.07136979831181904</v>
+        <v>0.01331820782259506</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01869708329427575</v>
+        <v>0.001652746443503726</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04363691243777564</v>
+        <v>0.006022798940184274</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.03074682378752478</v>
+        <v>0.004745709574280376</v>
       </c>
     </row>
   </sheetData>
